--- a/data/trans_orig/IP07A21_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A21_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69A687B6-A7D4-4082-AE49-D7B218937026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFB42DFA-F1F0-4452-95D4-1B115B5B3F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FE9AEF83-2951-4861-9C65-3B77392FCE7D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DF2BDD61-4D9B-423A-99C8-070F774E5FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,256 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>3,02%</t>
@@ -89,45 +335,12 @@
     <t>7,5%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
     <t>1,49%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>24,48%</t>
   </si>
   <si>
@@ -155,27 +368,6 @@
     <t>29,0%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>70,62%</t>
   </si>
   <si>
@@ -203,126 +395,117 @@
     <t>77,03%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
     <t>2,87%</t>
   </si>
   <si>
@@ -350,12 +533,6 @@
     <t>7,35%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
     <t>24,45%</t>
   </si>
   <si>
@@ -383,18 +560,6 @@
     <t>32,02%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
     <t>72,68%</t>
   </si>
   <si>
@@ -422,169 +587,46 @@
     <t>75,69%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>3,47%</t>
@@ -614,30 +656,6 @@
     <t>4,62%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
     <t>24,57%</t>
   </si>
   <si>
@@ -663,24 +681,6 @@
   </si>
   <si>
     <t>30,81%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
   </si>
   <si>
     <t>70,87%</t>
@@ -1099,7 +1099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B416D2-259E-40F8-809E-7C480436D753}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E200376-8623-4626-B293-0EC48841B1E9}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1217,10 +1217,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4463</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1232,238 +1232,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>2924</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>10</v>
-      </c>
-      <c r="N4" s="7">
-        <v>7387</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1890</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2668</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>36219</v>
+        <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>22759</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>58978</v>
+        <v>636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>888</v>
+        <v>1434</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>4968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>888</v>
+        <v>6402</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>104467</v>
+        <v>4484</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>75779</v>
+        <v>4800</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="N8" s="7">
-        <v>180246</v>
+        <v>9284</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1472,108 +1472,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>147928</v>
+        <v>6555</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>102239</v>
+        <v>9768</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
-        <v>311</v>
+        <v>25</v>
       </c>
       <c r="N9" s="7">
-        <v>250167</v>
+        <v>16322</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>5689</v>
+        <v>902</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="7">
-        <v>728</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="7">
-        <v>5</v>
-      </c>
       <c r="N10" s="7">
-        <v>6417</v>
+        <v>902</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1582,13 +1582,13 @@
         <v>849</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1597,13 +1597,13 @@
         <v>705</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1612,121 +1612,121 @@
         <v>1553</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>17128</v>
+        <v>5689</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>11577</v>
+        <v>728</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>28704</v>
+        <v>6417</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>902</v>
+        <v>17128</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>11577</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>902</v>
+        <v>28704</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7">
         <v>47</v>
@@ -1735,13 +1735,13 @@
         <v>44711</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -1750,13 +1750,13 @@
         <v>38589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
@@ -1765,13 +1765,13 @@
         <v>83300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1786,13 +1786,13 @@
         <v>69278</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -1801,13 +1801,13 @@
         <v>51598</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -1816,270 +1816,270 @@
         <v>120876</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>2635</v>
+        <v>888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>5224</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>7859</v>
+        <v>888</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1890</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>2668</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>22448</v>
+        <v>4463</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>26967</v>
+        <v>2924</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>49416</v>
+        <v>7387</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7">
         <v>39</v>
       </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>36219</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="7">
+        <v>34</v>
+      </c>
+      <c r="I19" s="7">
+        <v>22759</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>818</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="N19" s="7">
-        <v>818</v>
+        <v>58978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="D20" s="7">
-        <v>66720</v>
+        <v>104467</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I20" s="7">
-        <v>66181</v>
+        <v>75779</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="N20" s="7">
-        <v>132901</v>
+        <v>180246</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,72 +2088,72 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="D21" s="7">
-        <v>91804</v>
+        <v>147928</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I21" s="7">
-        <v>99190</v>
+        <v>102239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="N21" s="7">
-        <v>190994</v>
+        <v>250167</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2162,34 +2162,34 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2198,196 +2198,196 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>4208</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>4208</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>1434</v>
+        <v>1072</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="H24" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>4968</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N24" s="7">
-        <v>6402</v>
+        <v>1072</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>25358</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="7">
+        <v>43</v>
+      </c>
+      <c r="I25" s="7">
+        <v>41414</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>66772</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D26" s="7">
-        <v>4484</v>
+        <v>75557</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="7">
+        <v>71</v>
+      </c>
+      <c r="I26" s="7">
+        <v>52854</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>153</v>
+      </c>
+      <c r="N26" s="7">
+        <v>128411</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4800</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M26" s="7">
-        <v>14</v>
-      </c>
-      <c r="N26" s="7">
-        <v>9284</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,108 +2396,108 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>6555</v>
+        <v>101987</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H27" s="7">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I27" s="7">
-        <v>9768</v>
+        <v>98476</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M27" s="7">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="N27" s="7">
-        <v>16322</v>
+        <v>200463</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>1072</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>818</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>818</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M28" s="7">
-        <v>2</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1072</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2506,142 +2506,142 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>4208</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M29" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>4208</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>25358</v>
+        <v>2635</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="7">
+        <v>7</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5224</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M30" s="7">
+        <v>11</v>
+      </c>
+      <c r="N30" s="7">
+        <v>7859</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H30" s="7">
-        <v>43</v>
-      </c>
-      <c r="I30" s="7">
-        <v>41414</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M30" s="7">
-        <v>69</v>
-      </c>
-      <c r="N30" s="7">
-        <v>66772</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>22448</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>26967</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>49416</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>173</v>
@@ -2650,13 +2650,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32" s="7">
-        <v>75557</v>
+        <v>66720</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>174</v>
@@ -2668,10 +2668,10 @@
         <v>176</v>
       </c>
       <c r="H32" s="7">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I32" s="7">
-        <v>52854</v>
+        <v>66181</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>177</v>
@@ -2683,10 +2683,10 @@
         <v>179</v>
       </c>
       <c r="M32" s="7">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="N32" s="7">
-        <v>128411</v>
+        <v>132901</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>180</v>
@@ -2704,49 +2704,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D33" s="7">
-        <v>101987</v>
+        <v>91804</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H33" s="7">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I33" s="7">
-        <v>98476</v>
+        <v>99190</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M33" s="7">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="N33" s="7">
-        <v>200463</v>
+        <v>190994</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,55 +2757,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>14496</v>
+        <v>1790</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>818</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H34" s="7">
-        <v>12</v>
-      </c>
-      <c r="I34" s="7">
-        <v>8875</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>3</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2608</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="M34" s="7">
-        <v>29</v>
-      </c>
-      <c r="N34" s="7">
-        <v>23371</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
@@ -2814,13 +2814,13 @@
         <v>2739</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -2829,13 +2829,13 @@
         <v>5690</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M35" s="7">
         <v>11</v>
@@ -2844,106 +2844,106 @@
         <v>8429</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7">
+        <v>14496</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="7">
+        <v>12</v>
+      </c>
+      <c r="I36" s="7">
+        <v>8875</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M36" s="7">
         <v>29</v>
       </c>
-      <c r="C36" s="7">
-        <v>121</v>
-      </c>
-      <c r="D36" s="7">
-        <v>102588</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H36" s="7">
-        <v>139</v>
-      </c>
-      <c r="I36" s="7">
-        <v>107684</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="N36" s="7">
+        <v>23371</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="M36" s="7">
-        <v>260</v>
-      </c>
-      <c r="N36" s="7">
-        <v>210272</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="D37" s="7">
-        <v>1790</v>
+        <v>102588</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H37" s="7">
+        <v>139</v>
+      </c>
+      <c r="I37" s="7">
+        <v>107684</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>818</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>211</v>
       </c>
       <c r="M37" s="7">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="N37" s="7">
-        <v>2608</v>
+        <v>210272</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>212</v>
@@ -2958,7 +2958,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C38" s="7">
         <v>345</v>
@@ -3018,13 +3018,13 @@
         <v>417552</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H39" s="7">
         <v>476</v>
@@ -3033,13 +3033,13 @@
         <v>361271</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M39" s="7">
         <v>964</v>
@@ -3048,13 +3048,13 @@
         <v>778823</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A21_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A21_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFB42DFA-F1F0-4452-95D4-1B115B5B3F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DCED62E-F834-41E0-8A34-AB5BA0C07A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DF2BDD61-4D9B-423A-99C8-070F774E5FB9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{406DB8F5-17A4-4491-A18C-F06A0E718943}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="226">
   <si>
     <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -68,109 +68,205 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>7,57%</t>
+    <t>6,78%</t>
   </si>
   <si>
     <t>2,59%</t>
@@ -179,112 +275,118 @@
     <t>0,75%</t>
   </si>
   <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>2,95%</t>
+    <t>2,51%</t>
   </si>
   <si>
     <t>1,4%</t>
@@ -293,421 +395,325 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
     <t>0,33%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -718,7 +724,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -814,39 +820,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -898,7 +904,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1009,13 +1015,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1024,6 +1023,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1088,19 +1094,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E200376-8623-4626-B293-0EC48841B1E9}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58447785-78FB-4D40-9E60-3E31FA5F940B}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1217,10 +1243,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1232,91 +1258,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
         <v>14</v>
       </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>9284</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1434</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>4968</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>6402</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1325,13 +1351,13 @@
         <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1340,13 +1366,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1355,115 +1381,115 @@
         <v>636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>1434</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>4968</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>6402</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="7">
-        <v>8</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4800</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>9284</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,106 +1551,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>902</v>
+        <v>44711</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>38589</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N10" s="7">
-        <v>902</v>
+        <v>83300</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>849</v>
+        <v>17128</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7">
-        <v>705</v>
+        <v>11577</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="N11" s="7">
-        <v>1553</v>
+        <v>28704</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -1633,13 +1659,13 @@
         <v>5689</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1648,13 +1674,13 @@
         <v>728</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1663,112 +1689,112 @@
         <v>6417</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>17128</v>
+        <v>849</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>11577</v>
+        <v>705</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>28704</v>
+        <v>1553</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>44711</v>
+        <v>902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>38589</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>83300</v>
+        <v>902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>79</v>
@@ -1833,106 +1859,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="D16" s="7">
-        <v>888</v>
+        <v>104467</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>75779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="N16" s="7">
-        <v>888</v>
+        <v>180246</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>1890</v>
+        <v>36219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>777</v>
+        <v>22759</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="N17" s="7">
-        <v>2668</v>
+        <v>58978</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>6</v>
@@ -1941,13 +1967,13 @@
         <v>4463</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -1956,13 +1982,13 @@
         <v>2924</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -1971,115 +1997,115 @@
         <v>7387</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>36219</v>
+        <v>1890</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>22759</v>
+        <v>777</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>58978</v>
+        <v>2668</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>104467</v>
+        <v>888</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>75779</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>180246</v>
+        <v>888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,112 +2161,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>75557</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>52854</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>128411</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>25358</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="I23" s="7">
-        <v>4208</v>
+        <v>41414</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="N23" s="7">
-        <v>4208</v>
+        <v>66772</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
@@ -2249,13 +2275,13 @@
         <v>1072</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2264,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2279,115 +2305,115 @@
         <v>1072</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>25358</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>41414</v>
+        <v>4208</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>66772</v>
+        <v>4208</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>75557</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>52854</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="M26" s="7">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>128411</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,112 +2469,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>66720</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="I28" s="7">
-        <v>818</v>
+        <v>66181</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="N28" s="7">
-        <v>818</v>
+        <v>132901</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>22448</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>26967</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>49416</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>4</v>
@@ -2557,13 +2583,13 @@
         <v>2635</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -2572,13 +2598,13 @@
         <v>5224</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -2587,115 +2613,115 @@
         <v>7859</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>22448</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H31" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>26967</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="M31" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>49416</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>66720</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H32" s="7">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>66181</v>
+        <v>818</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M32" s="7">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>132901</v>
+        <v>818</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,106 +2783,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>345</v>
       </c>
       <c r="D34" s="7">
-        <v>1790</v>
+        <v>295940</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="I34" s="7">
-        <v>818</v>
+        <v>238203</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M34" s="7">
-        <v>3</v>
+        <v>661</v>
       </c>
       <c r="N34" s="7">
-        <v>2608</v>
+        <v>534142</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="D35" s="7">
-        <v>2739</v>
+        <v>102588</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H35" s="7">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="I35" s="7">
-        <v>5690</v>
+        <v>107684</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M35" s="7">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="N35" s="7">
-        <v>8429</v>
+        <v>210272</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>17</v>
@@ -2865,13 +2891,13 @@
         <v>14496</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -2880,13 +2906,13 @@
         <v>8875</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -2895,115 +2921,115 @@
         <v>23371</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>102588</v>
+        <v>2739</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H37" s="7">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="I37" s="7">
-        <v>107684</v>
+        <v>5690</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M37" s="7">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="N37" s="7">
-        <v>210272</v>
+        <v>8429</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7">
-        <v>345</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>295940</v>
+        <v>1790</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H38" s="7">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>238203</v>
+        <v>818</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M38" s="7">
-        <v>661</v>
+        <v>3</v>
       </c>
       <c r="N38" s="7">
-        <v>534142</v>
+        <v>2608</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,6 +3081,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A21_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A21_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DCED62E-F834-41E0-8A34-AB5BA0C07A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F5D87FD-8111-49D1-98FF-F3E038EFF34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{406DB8F5-17A4-4491-A18C-F06A0E718943}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6726988-AAE6-4297-9483-097B3BD75933}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="220">
   <si>
     <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -74,28 +74,28 @@
     <t>68,41%</t>
   </si>
   <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>49,14%</t>
   </si>
   <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
   </si>
   <si>
     <t>56,88%</t>
   </si>
   <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>69,64%</t>
+    <t>58,89%</t>
   </si>
   <si>
     <t>50,86%</t>
   </si>
   <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
   </si>
   <si>
     <t>39,22%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -134,7 +134,7 @@
     <t>9,71%</t>
   </si>
   <si>
-    <t>43,65%</t>
+    <t>47,33%</t>
   </si>
   <si>
     <t>0%</t>
@@ -146,7 +146,7 @@
     <t>3,9%</t>
   </si>
   <si>
-    <t>19,91%</t>
+    <t>16,48%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -164,109 +164,109 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>64,54%</t>
   </si>
   <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
   </si>
   <si>
     <t>24,72%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
+    <t>14,49%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>5,66%</t>
+    <t>6,2%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>7,14%</t>
+    <t>7,11%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>4,84%</t>
+    <t>4,44%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>6,78%</t>
+    <t>6,19%</t>
   </si>
   <si>
     <t>2,59%</t>
@@ -275,64 +275,58 @@
     <t>0,75%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
   </si>
   <si>
     <t>74,12%</t>
   </si>
   <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>66,32%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
   </si>
   <si>
     <t>22,26%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
   <si>
     <t>23,58%</t>
   </si>
   <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
+    <t>29,58%</t>
   </si>
   <si>
     <t>3,02%</t>
@@ -341,148 +335,145 @@
     <t>1,2%</t>
   </si>
   <si>
-    <t>6,5%</t>
+    <t>6,46%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>5,41%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>0,83%</t>
@@ -494,61 +485,61 @@
     <t>72,68%</t>
   </si>
   <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
   </si>
   <si>
     <t>66,72%</t>
   </si>
   <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
   </si>
   <si>
     <t>69,58%</t>
   </si>
   <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
   </si>
   <si>
     <t>27,19%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
   </si>
   <si>
     <t>25,87%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>0,63%</t>
+    <t>0,82%</t>
   </si>
   <si>
     <t>6,88%</t>
@@ -557,19 +548,19 @@
     <t>5,27%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
   </si>
   <si>
     <t>1,64%</t>
@@ -581,31 +572,28 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>4,1%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>2,37%</t>
   </si>
   <si>
     <t>70,87%</t>
   </si>
   <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>59,94%</t>
+    <t>59,45%</t>
   </si>
   <si>
     <t>70,61%</t>
@@ -614,61 +602,61 @@
     <t>68,58%</t>
   </si>
   <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
   </si>
   <si>
     <t>24,57%</t>
   </si>
   <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
   </si>
   <si>
     <t>29,81%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
   </si>
   <si>
     <t>27,0%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>4,2%</t>
+    <t>4,31%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -677,31 +665,25 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,18%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -710,7 +692,7 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,96%</t>
+    <t>0,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1125,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58447785-78FB-4D40-9E60-3E31FA5F940B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCAC5E5-9EF8-4765-86B3-C6222C8887B7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1901,7 +1883,7 @@
         <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1898,13 @@
         <v>36219</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -1931,13 +1913,13 @@
         <v>22759</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -1946,13 +1928,13 @@
         <v>58978</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1949,13 @@
         <v>4463</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -1982,13 +1964,13 @@
         <v>2924</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -1997,13 +1979,13 @@
         <v>7387</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,13 +2000,13 @@
         <v>1890</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2033,13 +2015,13 @@
         <v>777</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2048,13 +2030,13 @@
         <v>2668</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,13 +2051,13 @@
         <v>888</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2090,7 +2072,7 @@
         <v>33</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2099,13 +2081,13 @@
         <v>888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,7 +2143,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2173,13 +2155,13 @@
         <v>75557</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -2188,13 +2170,13 @@
         <v>52854</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>153</v>
@@ -2203,13 +2185,13 @@
         <v>128411</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2206,13 @@
         <v>25358</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -2239,13 +2221,13 @@
         <v>41414</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>69</v>
@@ -2254,13 +2236,13 @@
         <v>66772</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2257,13 @@
         <v>1072</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2296,7 +2278,7 @@
         <v>33</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2305,13 +2287,13 @@
         <v>1072</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2314,7 @@
         <v>33</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2341,13 +2323,13 @@
         <v>4208</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2356,13 +2338,13 @@
         <v>4208</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,7 +2365,7 @@
         <v>33</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2398,7 +2380,7 @@
         <v>33</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2413,7 +2395,7 @@
         <v>33</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,7 +2451,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2481,13 +2463,13 @@
         <v>66720</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H28" s="7">
         <v>87</v>
@@ -2496,13 +2478,13 @@
         <v>66181</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M28" s="7">
         <v>170</v>
@@ -2511,13 +2493,13 @@
         <v>132901</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2514,13 @@
         <v>22448</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -2547,13 +2529,13 @@
         <v>26967</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>65</v>
@@ -2562,13 +2544,13 @@
         <v>49416</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2565,13 @@
         <v>2635</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -2598,13 +2580,13 @@
         <v>5224</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -2613,13 +2595,13 @@
         <v>7859</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,7 +2622,7 @@
         <v>33</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2655,7 +2637,7 @@
         <v>33</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2670,7 +2652,7 @@
         <v>33</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,7 +2673,7 @@
         <v>33</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2700,13 +2682,13 @@
         <v>818</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2715,13 +2697,13 @@
         <v>818</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2771,13 @@
         <v>295940</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H34" s="7">
         <v>316</v>
@@ -2804,13 +2786,13 @@
         <v>238203</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M34" s="7">
         <v>661</v>
@@ -2819,13 +2801,13 @@
         <v>534142</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2822,13 @@
         <v>102588</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H35" s="7">
         <v>139</v>
@@ -2855,13 +2837,13 @@
         <v>107684</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M35" s="7">
         <v>260</v>
@@ -2870,13 +2852,13 @@
         <v>210272</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2873,13 @@
         <v>14496</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -2906,13 +2888,13 @@
         <v>8875</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -2921,13 +2903,13 @@
         <v>23371</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2924,13 @@
         <v>2739</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -2957,13 +2939,13 @@
         <v>5690</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
@@ -2972,13 +2954,13 @@
         <v>8429</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2975,13 @@
         <v>1790</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3008,13 +2990,13 @@
         <v>818</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -3023,13 +3005,13 @@
         <v>2608</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,7 +3067,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A21_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A21_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F5D87FD-8111-49D1-98FF-F3E038EFF34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{670E3669-4C6C-4287-8E7A-9589E807AE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6726988-AAE6-4297-9483-097B3BD75933}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{AAE8BBC8-6477-4680-9611-CE52F5DB5DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="220">
-  <si>
-    <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="217">
+  <si>
+    <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 50,31%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,634 +65,625 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>21,88%</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>Nada</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1107,8 +1098,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCAC5E5-9EF8-4765-86B3-C6222C8887B7}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074054B8-B079-4CD4-B665-7B6A09FA2BD4}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1225,10 +1216,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D4" s="7">
-        <v>4484</v>
+        <v>32494</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1240,10 +1231,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I4" s="7">
-        <v>4800</v>
+        <v>49145</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1255,10 +1246,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="N4" s="7">
-        <v>9284</v>
+        <v>81639</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1276,10 +1267,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>1434</v>
+        <v>24071</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1291,10 +1282,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>4968</v>
+        <v>21195</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1306,10 +1297,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="N5" s="7">
-        <v>6402</v>
+        <v>45266</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1327,106 +1318,106 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>636</v>
+        <v>1550</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>12208</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>636</v>
+        <v>13758</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2526</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>3155</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1435,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1450,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1465,13 +1456,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1480,102 +1471,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D9" s="7">
-        <v>6555</v>
+        <v>58744</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I9" s="7">
-        <v>9768</v>
+        <v>85074</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="N9" s="7">
-        <v>16322</v>
+        <v>143818</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7">
-        <v>44711</v>
+        <v>61458</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="I10" s="7">
-        <v>38589</v>
+        <v>99807</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="N10" s="7">
-        <v>83300</v>
+        <v>161266</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,49 +1575,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>17128</v>
+        <v>33498</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I11" s="7">
-        <v>11577</v>
+        <v>38929</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="N11" s="7">
-        <v>28704</v>
+        <v>72427</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1635,151 +1626,151 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>5689</v>
+        <v>1174</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>728</v>
+        <v>7104</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>6417</v>
+        <v>8279</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>849</v>
+        <v>1136</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>705</v>
+        <v>2361</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1553</v>
+        <v>3497</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
-        <v>902</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>902</v>
+        <v>1014</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,102 +1779,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="D15" s="7">
-        <v>69278</v>
+        <v>97266</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="I15" s="7">
-        <v>51598</v>
+        <v>149215</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="N15" s="7">
-        <v>120876</v>
+        <v>246482</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>104467</v>
+        <v>88935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="I16" s="7">
-        <v>75779</v>
+        <v>77678</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="N16" s="7">
-        <v>180246</v>
+        <v>166613</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,49 +1883,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7">
-        <v>36219</v>
+        <v>26336</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I17" s="7">
-        <v>22759</v>
+        <v>27201</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N17" s="7">
-        <v>58978</v>
+        <v>53536</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,121 +1934,121 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>4463</v>
+        <v>1408</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>2924</v>
+        <v>2582</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>7387</v>
+        <v>3990</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>772</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
-        <v>1890</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
       <c r="I19" s="7">
-        <v>777</v>
+        <v>1504</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>2668</v>
+        <v>2276</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>888</v>
+        <v>1374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2066,28 +2057,28 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>888</v>
+        <v>1374</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,102 +2087,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="D21" s="7">
-        <v>147928</v>
+        <v>118824</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="I21" s="7">
-        <v>102239</v>
+        <v>108964</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
-        <v>311</v>
+        <v>230</v>
       </c>
       <c r="N21" s="7">
-        <v>250167</v>
+        <v>227788</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D22" s="7">
-        <v>75557</v>
+        <v>50841</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I22" s="7">
-        <v>52854</v>
+        <v>52607</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="N22" s="7">
-        <v>128411</v>
+        <v>103448</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,49 +2191,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D23" s="7">
-        <v>25358</v>
+        <v>36530</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="H23" s="7">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I23" s="7">
-        <v>41414</v>
+        <v>37161</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="M23" s="7">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="N23" s="7">
-        <v>66772</v>
+        <v>73690</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,151 +2242,151 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>1072</v>
+        <v>4081</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>5953</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N24" s="7">
-        <v>1072</v>
+        <v>10034</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3503</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" s="7">
         <v>0</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>0</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4208</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>4208</v>
+        <v>3503</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>808</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>1558</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,102 +2395,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D27" s="7">
-        <v>101987</v>
+        <v>95763</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I27" s="7">
-        <v>98476</v>
+        <v>96471</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="N27" s="7">
-        <v>200463</v>
+        <v>192234</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="D28" s="7">
-        <v>66720</v>
+        <v>233730</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
-        <v>87</v>
+        <v>302</v>
       </c>
       <c r="I28" s="7">
-        <v>66181</v>
+        <v>279236</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
-        <v>170</v>
+        <v>583</v>
       </c>
       <c r="N28" s="7">
-        <v>132901</v>
+        <v>512966</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,49 +2499,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="D29" s="7">
-        <v>22448</v>
+        <v>120435</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="I29" s="7">
-        <v>26967</v>
+        <v>124485</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
-        <v>65</v>
+        <v>324</v>
       </c>
       <c r="N29" s="7">
-        <v>49416</v>
+        <v>244920</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,151 +2550,151 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>2635</v>
+        <v>8213</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="H30" s="7">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I30" s="7">
-        <v>5224</v>
+        <v>27848</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="M30" s="7">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N30" s="7">
-        <v>7859</v>
+        <v>36061</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>6039</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>6391</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>12430</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>818</v>
+        <v>1764</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="M32" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>818</v>
+        <v>3945</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,370 +2703,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>116</v>
+        <v>477</v>
       </c>
       <c r="D33" s="7">
-        <v>91804</v>
+        <v>370598</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
-        <v>131</v>
+        <v>489</v>
       </c>
       <c r="I33" s="7">
-        <v>99190</v>
+        <v>439724</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
-        <v>247</v>
+        <v>966</v>
       </c>
       <c r="N33" s="7">
-        <v>190994</v>
+        <v>810322</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>345</v>
-      </c>
-      <c r="D34" s="7">
-        <v>295940</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="7">
-        <v>316</v>
-      </c>
-      <c r="I34" s="7">
-        <v>238203</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M34" s="7">
-        <v>661</v>
-      </c>
-      <c r="N34" s="7">
-        <v>534142</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>121</v>
-      </c>
-      <c r="D35" s="7">
-        <v>102588</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H35" s="7">
-        <v>139</v>
-      </c>
-      <c r="I35" s="7">
-        <v>107684</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M35" s="7">
-        <v>260</v>
-      </c>
-      <c r="N35" s="7">
-        <v>210272</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>17</v>
-      </c>
-      <c r="D36" s="7">
-        <v>14496</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H36" s="7">
-        <v>12</v>
-      </c>
-      <c r="I36" s="7">
-        <v>8875</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M36" s="7">
-        <v>29</v>
-      </c>
-      <c r="N36" s="7">
-        <v>23371</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="7">
-        <v>3</v>
-      </c>
-      <c r="D37" s="7">
-        <v>2739</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H37" s="7">
-        <v>8</v>
-      </c>
-      <c r="I37" s="7">
-        <v>5690</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M37" s="7">
-        <v>11</v>
-      </c>
-      <c r="N37" s="7">
-        <v>8429</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="7">
-        <v>2</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1790</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="7">
-        <v>818</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M38" s="7">
-        <v>3</v>
-      </c>
-      <c r="N38" s="7">
-        <v>2608</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="A34" t="s">
         <v>216</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>488</v>
-      </c>
-      <c r="D39" s="7">
-        <v>417552</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="7">
-        <v>476</v>
-      </c>
-      <c r="I39" s="7">
-        <v>361271</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M39" s="7">
-        <v>964</v>
-      </c>
-      <c r="N39" s="7">
-        <v>778823</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>219</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
